--- a/data/testCase.xlsx
+++ b/data/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="15384" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="账号管理" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -46,7 +46,16 @@
     <t>Check_Type</t>
   </si>
   <si>
-    <t>Expect</t>
+    <t>Expect_Desp</t>
+  </si>
+  <si>
+    <t>Expect_Selector_Type</t>
+  </si>
+  <si>
+    <t>Expect_Selector_Info</t>
+  </si>
+  <si>
+    <t>Expect_Action</t>
   </si>
   <si>
     <t>Test_Result</t>
@@ -64,7 +73,7 @@
     <t>点击新增，弹出新增表单</t>
   </si>
   <si>
-    <t>/account/user</t>
+    <t>/accounts/users</t>
   </si>
   <si>
     <t>xpath</t>
@@ -82,9 +91,30 @@
     <t>显示弹窗</t>
   </si>
   <si>
+    <t>//*[@id="formModal"]</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
     <t>TS_0002</t>
   </si>
   <si>
+    <t>表单title</t>
+  </si>
+  <si>
+    <t>//*[@id="objModal"]/div/div/div[1]/h3</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>TS_0003</t>
+  </si>
+  <si>
     <t>填充用户名</t>
   </si>
   <si>
@@ -103,7 +133,7 @@
     <t>输入值获取</t>
   </si>
   <si>
-    <t>TS_0003</t>
+    <t>TS_0004</t>
   </si>
   <si>
     <t>填充密码</t>
@@ -112,7 +142,7 @@
     <t>密码*</t>
   </si>
   <si>
-    <t>TS_0004</t>
+    <t>TS_0005</t>
   </si>
   <si>
     <t>密码确认</t>
@@ -121,7 +151,7 @@
     <t>密码确认*</t>
   </si>
   <si>
-    <t>TS_0005</t>
+    <t>TS_0006</t>
   </si>
   <si>
     <t>选择组别</t>
@@ -133,13 +163,16 @@
     <t>selectOption</t>
   </si>
   <si>
+    <t>TS_0007</t>
+  </si>
+  <si>
     <t>选择经纪公司</t>
   </si>
   <si>
     <t>//*[@id="id_broker"]</t>
   </si>
   <si>
-    <t>TS_0006</t>
+    <t>TS_0008</t>
   </si>
   <si>
     <t>姓名填写</t>
@@ -151,7 +184,7 @@
     <t>测试</t>
   </si>
   <si>
-    <t>TS_0007</t>
+    <t>TS_0009</t>
   </si>
   <si>
     <t>点击确认添加，关闭弹窗</t>
@@ -1169,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1182,15 +1215,17 @@
     <col min="3" max="3" width="16.2" style="1" customWidth="1"/>
     <col min="4" max="5" width="25.1" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.8" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.8" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.6" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8" style="1" customWidth="1"/>
+    <col min="12" max="13" width="22.8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1227,253 +1262,306 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>44</v>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 L2 I2 K3:L3 J7:L7 K5:L5 K4:L4 F1:L1" numberStoredAsText="1"/>
+    <ignoredError sqref="O1 O5 O6 O8 O4 A1:D1 K4 J8:K8 K6 K5 H1:J1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/testCase.xlsx
+++ b/data/testCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -530,15 +530,19 @@
     </r>
   </si>
   <si>
-    <t>TS_0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_0006</t>
+    <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="id_password1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,9 +599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -609,13 +610,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,882 +961,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="41.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.796875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.796875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.796875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="7"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="7" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="7" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="7" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="7" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="7" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="7" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="7" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="7" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I24" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="7" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="7" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="7" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 L1:L6 F8:F1048576 L8:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 L1:L6 L8:L1048576 F8:F1048576">
       <formula1>"xpath,getByLabel,getByRole,getByText,getByPlaceholder,getByTitle,getByAltText"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">

--- a/data/testCase.xlsx
+++ b/data/testCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="116">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>点击新增，弹出新增表单</t>
   </si>
   <si>
-    <t>/accounts/users</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>点击</t>
   </si>
   <si>
-    <t>显示弹窗</t>
-  </si>
-  <si>
     <t>//*[@id="formModal"]</t>
   </si>
   <si>
@@ -145,10 +139,6 @@
   </si>
   <si>
     <t>//*[@id="submitModal"]</t>
-  </si>
-  <si>
-    <t>TC_0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -543,6 +533,130 @@
   </si>
   <si>
     <t>两次密码不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="error_1_id_password1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_0002</t>
+  </si>
+  <si>
+    <t>TC_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确填写，新增用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/accounts/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_0004</t>
+  </si>
+  <si>
+    <t>TS_0005</t>
+  </si>
+  <si>
+    <t>TS_0006</t>
+  </si>
+  <si>
+    <t>填充密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择经纪公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_0007</t>
+  </si>
+  <si>
+    <t>点击确认添加，关闭弹窗，显示新增人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectOption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lick</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗，显示新增一条内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增账号,显示弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_0006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +735,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,25 +1096,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="12" customWidth="1"/>
     <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.59765625" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.796875" style="1" customWidth="1"/>
     <col min="13" max="13" width="33.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
@@ -991,13 +1126,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1018,7 +1153,7 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1034,741 +1169,937 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="J16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I24" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="6" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>18</v>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
+  <mergeCells count="11">
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="E2:E34"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 L1:L6 L8:L1048576 F8:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F1048576 L1:L13 L15:L1048576 F1:F13">
       <formula1>"xpath,getByLabel,getByRole,getByText,getByPlaceholder,getByTitle,getByAltText"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
@@ -1778,7 +2109,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O3" numberStoredAsText="1"/>
+    <ignoredError sqref="O10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>